--- a/spliced/struggle/2023-04-11_10-25-25/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-25-25/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>0.0531452745199203</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.7247915863990784</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.964529037475586</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.036930084228516</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.9755517840385436</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.013092756271362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1954768747091293</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.0148134818300604</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-4.330729007720947</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6641632318496704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2535090744495392</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.50192403793335</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8677340745925903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0308486949652433</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.680310487747192</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.009607553482056</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2924517393112182</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6568328738212585</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4216497242450714</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.683863639831543</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.383111000061035</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.505782842636108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.6068946123123169</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.862334728240967</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4990769028663635</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.4978551864624023</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.975052833557129</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3481931984424591</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.299934834241867</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.433395266532898</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5711590051651001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
